--- a/proj3/output/extra-credit.xlsx
+++ b/proj3/output/extra-credit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\rhel9\home\vlee\repos\cs475\proj3\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A57E6533-62B6-4FDA-8424-A3600D4214BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1914FFFC-00C3-4AC9-AF96-47EF0425EC8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416"/>
   </bookViews>
   <sheets>
     <sheet name="extra-credit" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="135">
   <si>
     <t xml:space="preserve">	  0</t>
   </si>
@@ -410,6 +410,21 @@
   </si>
   <si>
     <t xml:space="preserve"> SantaRosa</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Closest City</t>
+  </si>
+  <si>
+    <t>State</t>
   </si>
 </sst>
 </file>
@@ -951,6 +966,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:E51" totalsRowShown="0">
+  <autoFilter ref="A1:E51">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="5">
+    <tableColumn id="1" name="k"/>
+    <tableColumn id="2" name="Longitude"/>
+    <tableColumn id="3" name="Latitude"/>
+    <tableColumn id="4" name="Closest City"/>
+    <tableColumn id="5" name="State"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1270,296 +1305,302 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="10.3984375" customWidth="1"/>
+    <col min="4" max="4" width="14.53125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>74.08</v>
-      </c>
-      <c r="C1">
-        <v>40.68</v>
+        <v>130</v>
+      </c>
+      <c r="B1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" t="s">
+        <v>132</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>98.1</v>
+        <v>74.08</v>
       </c>
       <c r="C2">
-        <v>26.77</v>
+        <v>40.68</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>83.9</v>
+        <v>98.1</v>
       </c>
       <c r="C3">
-        <v>39.64</v>
+        <v>26.77</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>85.24</v>
+        <v>83.9</v>
       </c>
       <c r="C4">
-        <v>33.6</v>
+        <v>39.64</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>85.45</v>
+        <v>85.24</v>
       </c>
       <c r="C5">
-        <v>36.840000000000003</v>
+        <v>33.6</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>119.6</v>
+        <v>85.45</v>
       </c>
       <c r="C6">
-        <v>36.65</v>
+        <v>36.840000000000003</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>77.31</v>
+        <v>119.6</v>
       </c>
       <c r="C7">
-        <v>36.380000000000003</v>
+        <v>36.65</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>119.04</v>
+        <v>77.31</v>
       </c>
       <c r="C8">
-        <v>35.35</v>
+        <v>36.380000000000003</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9">
-        <v>83.74</v>
+        <v>119.04</v>
       </c>
       <c r="C9">
-        <v>42.42</v>
+        <v>35.35</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B10">
-        <v>82.42</v>
+        <v>83.74</v>
       </c>
       <c r="C10">
-        <v>28.83</v>
+        <v>42.42</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B11">
-        <v>80.430000000000007</v>
+        <v>82.42</v>
       </c>
       <c r="C11">
-        <v>34.46</v>
+        <v>28.83</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B12">
-        <v>114.74</v>
+        <v>80.430000000000007</v>
       </c>
       <c r="C12">
-        <v>36.4</v>
+        <v>34.46</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B13">
-        <v>85.94</v>
+        <v>114.74</v>
       </c>
       <c r="C13">
-        <v>40.5</v>
+        <v>36.4</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B14">
-        <v>112</v>
+        <v>85.94</v>
       </c>
       <c r="C14">
-        <v>33.369999999999997</v>
+        <v>40.5</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B15">
-        <v>122.26</v>
+        <v>112</v>
       </c>
       <c r="C15">
-        <v>47.55</v>
+        <v>33.369999999999997</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B16">
-        <v>117.33</v>
+        <v>122.26</v>
       </c>
       <c r="C16">
-        <v>34.47</v>
+        <v>47.55</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B17">
-        <v>117.44</v>
+        <v>117.33</v>
       </c>
       <c r="C17">
-        <v>34.03</v>
+        <v>34.47</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E17" t="s">
         <v>17</v>
@@ -1567,509 +1608,509 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B18">
-        <v>108.55</v>
+        <v>117.44</v>
       </c>
       <c r="C18">
-        <v>45.79</v>
+        <v>34.03</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B19">
-        <v>101.58</v>
+        <v>108.55</v>
       </c>
       <c r="C19">
-        <v>33.020000000000003</v>
+        <v>45.79</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B20">
-        <v>88.97</v>
+        <v>101.58</v>
       </c>
       <c r="C20">
-        <v>41.99</v>
+        <v>33.020000000000003</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B21">
-        <v>81.06</v>
+        <v>88.97</v>
       </c>
       <c r="C21">
-        <v>41</v>
+        <v>41.99</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B22">
-        <v>91.08</v>
+        <v>81.06</v>
       </c>
       <c r="C22">
-        <v>31.55</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B23">
-        <v>88.77</v>
+        <v>91.08</v>
       </c>
       <c r="C23">
-        <v>37.08</v>
+        <v>31.55</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B24">
-        <v>104.93</v>
+        <v>88.77</v>
       </c>
       <c r="C24">
-        <v>39.71</v>
+        <v>37.08</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B25">
-        <v>122.17</v>
+        <v>104.93</v>
       </c>
       <c r="C25">
-        <v>37.92</v>
+        <v>39.71</v>
       </c>
       <c r="D25" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E25" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B26">
-        <v>71.209999999999994</v>
+        <v>122.17</v>
       </c>
       <c r="C26">
-        <v>42.29</v>
+        <v>37.92</v>
       </c>
       <c r="D26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E26" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B27">
-        <v>117.13</v>
+        <v>71.209999999999994</v>
       </c>
       <c r="C27">
-        <v>32.950000000000003</v>
+        <v>42.29</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E27" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B28">
-        <v>95.18</v>
+        <v>117.13</v>
       </c>
       <c r="C28">
-        <v>29.78</v>
+        <v>32.950000000000003</v>
       </c>
       <c r="D28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E28" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B29">
-        <v>77.540000000000006</v>
+        <v>95.18</v>
       </c>
       <c r="C29">
-        <v>43.03</v>
+        <v>29.78</v>
       </c>
       <c r="D29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E29" t="s">
-        <v>78</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B30">
-        <v>76.900000000000006</v>
+        <v>77.540000000000006</v>
       </c>
       <c r="C30">
-        <v>39.01</v>
+        <v>43.03</v>
       </c>
       <c r="D30" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E30" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B31">
-        <v>94.34</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="C31">
-        <v>44.32</v>
+        <v>39.01</v>
       </c>
       <c r="D31" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E31" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B32">
-        <v>75.31</v>
+        <v>94.34</v>
       </c>
       <c r="C32">
-        <v>40.299999999999997</v>
+        <v>44.32</v>
       </c>
       <c r="D32" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E32" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B33">
-        <v>116.4</v>
+        <v>75.31</v>
       </c>
       <c r="C33">
-        <v>43.6</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="D33" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E33" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B34">
-        <v>121.67</v>
+        <v>116.4</v>
       </c>
       <c r="C34">
-        <v>37.409999999999997</v>
+        <v>43.6</v>
       </c>
       <c r="D34" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E34" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B35">
-        <v>97.61</v>
+        <v>121.67</v>
       </c>
       <c r="C35">
-        <v>30.46</v>
+        <v>37.409999999999997</v>
       </c>
       <c r="D35" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E35" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B36">
-        <v>95.04</v>
+        <v>97.61</v>
       </c>
       <c r="C36">
-        <v>38.65</v>
+        <v>30.46</v>
       </c>
       <c r="D36" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E36" t="s">
-        <v>97</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B37">
-        <v>120.93</v>
+        <v>95.04</v>
       </c>
       <c r="C37">
-        <v>39.1</v>
+        <v>38.65</v>
       </c>
       <c r="D37" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E37" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B38">
-        <v>111.98</v>
+        <v>120.93</v>
       </c>
       <c r="C38">
-        <v>40.69</v>
+        <v>39.1</v>
       </c>
       <c r="D38" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E38" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B39">
-        <v>73.03</v>
+        <v>111.98</v>
       </c>
       <c r="C39">
-        <v>41.77</v>
+        <v>40.69</v>
       </c>
       <c r="D39" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E39" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B40">
-        <v>111.65</v>
+        <v>73.03</v>
       </c>
       <c r="C40">
-        <v>40.25</v>
+        <v>41.77</v>
       </c>
       <c r="D40" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E40" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B41">
-        <v>117.17</v>
+        <v>111.65</v>
       </c>
       <c r="C41">
-        <v>33.58</v>
+        <v>40.25</v>
       </c>
       <c r="D41" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E41" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B42">
-        <v>117.33</v>
+        <v>117.17</v>
       </c>
       <c r="C42">
-        <v>47.67</v>
+        <v>33.58</v>
       </c>
       <c r="D42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B43">
-        <v>119.63</v>
+        <v>117.33</v>
       </c>
       <c r="C43">
-        <v>34.47</v>
+        <v>47.67</v>
       </c>
       <c r="D43" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E43" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B44">
-        <v>106.64</v>
+        <v>119.63</v>
       </c>
       <c r="C44">
-        <v>33.64</v>
+        <v>34.47</v>
       </c>
       <c r="D44" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E44" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B45">
-        <v>80.400000000000006</v>
+        <v>106.64</v>
       </c>
       <c r="C45">
-        <v>26.36</v>
+        <v>33.64</v>
       </c>
       <c r="D45" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E45" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B46">
-        <v>117.93</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="C46">
-        <v>33.85</v>
+        <v>26.36</v>
       </c>
       <c r="D46" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E46" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B47">
-        <v>118.38</v>
+        <v>117.93</v>
       </c>
       <c r="C47">
-        <v>34.229999999999997</v>
+        <v>33.85</v>
       </c>
       <c r="D47" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E47" t="s">
         <v>17</v>
@@ -2077,56 +2118,76 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B48">
-        <v>96.94</v>
+        <v>118.38</v>
       </c>
       <c r="C48">
-        <v>33.22</v>
+        <v>34.229999999999997</v>
       </c>
       <c r="D48" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E48" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B49">
-        <v>122.58</v>
+        <v>96.94</v>
       </c>
       <c r="C49">
-        <v>45.04</v>
+        <v>33.22</v>
       </c>
       <c r="D49" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E49" t="s">
-        <v>127</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
+        <v>125</v>
+      </c>
+      <c r="B50">
+        <v>122.58</v>
+      </c>
+      <c r="C50">
+        <v>45.04</v>
+      </c>
+      <c r="D50" t="s">
+        <v>126</v>
+      </c>
+      <c r="E50" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
         <v>128</v>
       </c>
-      <c r="B50">
+      <c r="B51">
         <v>122.87</v>
       </c>
-      <c r="C50">
+      <c r="C51">
         <v>38.090000000000003</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D51" t="s">
         <v>129</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E51" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>